--- a/testing/c-output-xls/chart_line.xlsx
+++ b/testing/c-output-xls/chart_line.xlsx
@@ -13,10 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Batch 1</t>
+  </si>
+  <si>
+    <t>Batch 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -44,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58,7 +81,26 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="10"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of sample analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -66,16 +108,54 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -92,6 +172,78 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -107,6 +259,25 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
@@ -121,7 +292,531 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="12"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of sample analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="13"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of sample analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Batch 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -146,15 +841,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -169,6 +864,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -462,40 +1217,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>40</v>
       </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>50</v>
       </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>20</v>
       </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>50</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
